--- a/biology/Microbiologie/Rivularia_(cyanobactérie)/Rivularia_(cyanobactérie).xlsx
+++ b/biology/Microbiologie/Rivularia_(cyanobactérie)/Rivularia_(cyanobactérie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rivularia_(cyanobact%C3%A9rie)</t>
+          <t>Rivularia_(cyanobactérie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rivularia est un genre de cyanobactéries de la famille des Rivulariaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rivularia_(cyanobact%C3%A9rie)</t>
+          <t>Rivularia_(cyanobactérie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019) :
 Rivularia aquatica De Wildeman
 Rivularia atanasiui (O.Dragastan) O.Dragastan
 Rivularia atra Roth ex Bornet &amp; Flahault
@@ -574,7 +588,7 @@
 Rivularia verticillata (Withering) J.E.Smith (Statut incertain)
 Rivularia vieillardii Bornet &amp; Flahault
 Rivularia viellardi Bornet &amp; Flahault
-Selon World Register of Marine Species                               (5 février 2019)[2] :
+Selon World Register of Marine Species                               (5 février 2019) :
 Rivularia aquatica De Wildeman, 1897
 Rivularia atanasiui (O.Dragastan) O.Dragastan, 1985 †
 Rivularia atra Roth ex Bornet &amp; Flahault, 1886
@@ -637,7 +651,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rivularia_(cyanobact%C3%A9rie)</t>
+          <t>Rivularia_(cyanobactérie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -655,9 +669,11 @@
           <t>Synonymies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 février 2019)[1], les noms suivants sont des synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 février 2019), les noms suivants sont des synonymes :
 Rivularia angulosa Roth = Gloeotrichia angulosa (Roth) J.Agardh
 Rivularia chrysocoma Kirchner = Rivularia haematites C.Agardh ex Bornet &amp; Flahault
 Rivularia contarenii Zanardini = Calothrix contarenii Bornet &amp; Flahault
